--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$129</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4670" uniqueCount="500">
   <si>
     <t>Path</t>
   </si>
@@ -343,7 +343,7 @@
     <t>species</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/openhie.vn.case-reporting.hiv/StructureDefinition/ethnicity}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/openhie.vn.case-reporting.hiv/StructureDefinition/vs-vn-ethnicity}
 </t>
   </si>
   <si>
@@ -639,16 +639,31 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>passport</t>
+    <t>theCCCD</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/NationalID</t>
+  </si>
+  <si>
+    <t>soCMTND</t>
+  </si>
+  <si>
+    <t>theBHXH</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
+  </si>
+  <si>
+    <t>soHoChieu</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
   </si>
   <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
+    <t>BanglaiXe</t>
+  </si>
+  <si>
+    <t>https://basespecs.vn/NamingSystem/DriverID</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1707,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6034,7 +6049,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6448,9 +6463,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6459,38 +6476,34 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6534,13 +6547,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6549,24 +6562,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6577,32 +6590,28 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6650,31 +6659,31 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6682,11 +6691,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6702,23 +6711,21 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6754,19 +6761,19 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6778,19 +6785,19 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6798,7 +6805,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6815,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>52</v>
@@ -6824,16 +6831,16 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6861,10 +6868,10 @@
         <v>150</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6882,7 +6889,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6897,24 +6904,24 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6928,7 +6935,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
@@ -6937,19 +6944,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6974,13 +6981,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6998,7 +7005,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7013,24 +7020,24 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7038,7 +7045,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -7047,38 +7054,38 @@
         <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>44</v>
@@ -7114,7 +7121,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7129,16 +7136,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7146,7 +7153,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7154,10 +7161,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7169,20 +7176,18 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7194,7 +7199,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>44</v>
@@ -7218,25 +7223,25 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7245,16 +7250,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7262,11 +7267,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7287,20 +7290,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7348,13 +7347,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7363,16 +7362,16 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7380,7 +7379,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7400,18 +7399,20 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7460,7 +7461,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7472,10 +7473,10 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7484,7 +7485,7 @@
         <v>44</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7492,11 +7493,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7512,21 +7515,21 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7562,19 +7565,19 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7586,19 +7589,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7606,7 +7609,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7614,7 +7617,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7623,38 +7626,34 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>44</v>
@@ -7666,13 +7665,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7690,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7702,10 +7701,10 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -7714,7 +7713,7 @@
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7722,18 +7721,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7742,19 +7741,19 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7768,7 +7767,7 @@
         <v>44</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>44</v>
@@ -7780,46 +7779,46 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -7828,7 +7827,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7836,7 +7835,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7853,25 +7852,25 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7884,7 +7883,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>44</v>
@@ -7896,13 +7895,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7920,7 +7919,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7935,7 +7934,7 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -7944,7 +7943,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7952,7 +7951,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7963,7 +7962,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7975,16 +7974,20 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>44</v>
@@ -8008,13 +8011,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8032,13 +8035,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -8047,7 +8050,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8056,7 +8059,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -8064,15 +8067,15 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -8087,28 +8090,32 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>44</v>
@@ -8144,7 +8151,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>314</v>
+        <v>173</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8159,7 +8166,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8168,7 +8175,7 @@
         <v>44</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8176,15 +8183,15 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
@@ -8202,13 +8209,13 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8222,7 +8229,7 @@
         <v>44</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>44</v>
@@ -8258,7 +8265,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8273,7 +8280,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8282,7 +8289,7 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8290,11 +8297,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8313,13 +8320,13 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8370,7 +8377,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>330</v>
+        <v>188</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8385,7 +8392,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8394,7 +8401,7 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8402,11 +8409,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8425,15 +8432,17 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8446,7 +8455,7 @@
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8482,7 +8491,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8497,7 +8506,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>339</v>
+        <v>197</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8506,7 +8515,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>340</v>
+        <v>198</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8514,9 +8523,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8525,7 +8536,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8537,18 +8548,18 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8596,13 +8607,13 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
@@ -8611,16 +8622,16 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8628,7 +8639,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8648,21 +8659,19 @@
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8674,7 +8683,7 @@
         <v>44</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>44</v>
@@ -8710,7 +8719,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8722,10 +8731,10 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>354</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>44</v>
@@ -8734,7 +8743,7 @@
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -8742,20 +8751,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8764,23 +8771,21 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8816,19 +8821,19 @@
         <v>44</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8840,19 +8845,19 @@
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8860,7 +8865,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8877,22 +8882,26 @@
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8916,13 +8925,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8940,7 +8949,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8952,10 +8961,10 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>44</v>
@@ -8964,7 +8973,7 @@
         <v>44</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -8972,18 +8981,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8992,21 +9001,23 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9030,46 +9041,46 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9078,7 +9089,7 @@
         <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9086,7 +9097,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9103,38 +9114,38 @@
         <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>44</v>
@@ -9146,13 +9157,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -9170,7 +9181,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9185,7 +9196,7 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>44</v>
@@ -9194,7 +9205,7 @@
         <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>44</v>
@@ -9202,7 +9213,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9210,7 +9221,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -9225,16 +9236,16 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9248,7 +9259,7 @@
         <v>44</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>44</v>
@@ -9260,13 +9271,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9284,7 +9295,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9299,7 +9310,7 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>44</v>
@@ -9308,7 +9319,7 @@
         <v>44</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>292</v>
+        <v>183</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>44</v>
@@ -9316,7 +9327,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9339,20 +9350,16 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9364,7 +9371,7 @@
         <v>44</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>44</v>
@@ -9400,7 +9407,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9415,7 +9422,7 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>44</v>
@@ -9424,7 +9431,7 @@
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9432,7 +9439,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9443,7 +9450,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9455,15 +9462,17 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9476,7 +9485,7 @@
         <v>44</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>44</v>
@@ -9512,13 +9521,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9527,7 +9536,7 @@
         <v>63</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9536,7 +9545,7 @@
         <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>44</v>
@@ -9544,11 +9553,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9561,26 +9570,32 @@
         <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="Q69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9588,7 +9603,7 @@
         <v>44</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>44</v>
@@ -9624,7 +9639,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9639,38 +9654,38 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>44</v>
@@ -9679,18 +9694,20 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9702,7 +9719,7 @@
         <v>44</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>44</v>
@@ -9738,13 +9755,13 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
@@ -9753,16 +9770,16 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9770,18 +9787,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>44</v>
@@ -9793,16 +9810,20 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9850,13 +9871,13 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>44</v>
@@ -9865,16 +9886,16 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9882,11 +9903,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9905,16 +9926,20 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -9926,7 +9951,7 @@
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -9938,13 +9963,13 @@
         <v>44</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -9962,7 +9987,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9977,24 +10002,24 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10008,7 +10033,7 @@
         <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>44</v>
@@ -10017,18 +10042,20 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10076,7 +10103,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10091,24 +10118,24 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10125,23 +10152,25 @@
         <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>351</v>
+        <v>260</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10154,7 +10183,7 @@
         <v>44</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>44</v>
@@ -10190,7 +10219,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10205,16 +10234,16 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>354</v>
+        <v>261</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10222,7 +10251,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10233,7 +10262,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>44</v>
@@ -10242,20 +10271,22 @@
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10280,37 +10311,37 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10319,16 +10350,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10336,9 +10367,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>44</v>
       </c>
@@ -10356,22 +10389,22 @@
         <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>367</v>
+        <v>264</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>368</v>
+        <v>265</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>369</v>
+        <v>266</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10420,13 +10453,13 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
@@ -10435,16 +10468,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10452,7 +10485,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10463,7 +10496,7 @@
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10475,20 +10508,16 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10536,31 +10565,31 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10568,11 +10597,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10591,20 +10620,18 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>383</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10640,19 +10667,19 @@
         <v>44</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>382</v>
+        <v>144</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10664,13 +10691,13 @@
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>388</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
@@ -10684,7 +10711,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10692,7 +10719,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>51</v>
@@ -10701,34 +10728,38 @@
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>44</v>
@@ -10740,13 +10771,13 @@
         <v>44</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>44</v>
@@ -10764,7 +10795,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10776,10 +10807,10 @@
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -10788,7 +10819,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10796,18 +10827,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
@@ -10816,19 +10847,19 @@
         <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10842,7 +10873,7 @@
         <v>44</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>44</v>
@@ -10854,13 +10885,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -10878,22 +10909,22 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>44</v>
@@ -10902,7 +10933,7 @@
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10910,42 +10941,42 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -10958,7 +10989,7 @@
         <v>44</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>44</v>
@@ -10994,22 +11025,22 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>44</v>
@@ -11018,7 +11049,7 @@
         <v>44</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>44</v>
@@ -11026,7 +11057,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11046,21 +11077,19 @@
         <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -11072,7 +11101,7 @@
         <v>44</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>44</v>
@@ -11084,13 +11113,13 @@
         <v>44</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>402</v>
+        <v>44</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
@@ -11108,7 +11137,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11123,16 +11152,16 @@
         <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11140,11 +11169,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11160,21 +11189,19 @@
         <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
       </c>
@@ -11186,7 +11213,7 @@
         <v>44</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>44</v>
@@ -11222,7 +11249,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11237,16 +11264,16 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11254,18 +11281,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11274,23 +11301,21 @@
         <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11302,7 +11327,7 @@
         <v>44</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>44</v>
@@ -11338,13 +11363,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11353,16 +11378,16 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11370,11 +11395,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11390,21 +11415,19 @@
         <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
@@ -11452,7 +11475,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11467,16 +11490,16 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11484,11 +11507,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11504,21 +11527,19 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11530,7 +11551,7 @@
         <v>44</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>44</v>
@@ -11542,13 +11563,13 @@
         <v>44</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -11566,7 +11587,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11581,16 +11602,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11598,7 +11619,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11618,21 +11639,21 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>425</v>
+        <v>347</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11680,7 +11701,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11689,22 +11710,22 @@
         <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>429</v>
+        <v>351</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11712,7 +11733,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11732,19 +11753,21 @@
         <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
       </c>
@@ -11756,7 +11779,7 @@
         <v>44</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>44</v>
@@ -11792,7 +11815,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11807,16 +11830,16 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11824,9 +11847,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11835,7 +11860,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>44</v>
@@ -11844,22 +11869,22 @@
         <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>436</v>
+        <v>265</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>439</v>
+        <v>268</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -11908,7 +11933,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>435</v>
+        <v>263</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11923,16 +11948,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>440</v>
+        <v>271</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11940,7 +11965,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12052,7 +12077,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>276</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12122,16 +12147,16 @@
         <v>44</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>144</v>
@@ -12166,18 +12191,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>444</v>
+        <v>277</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
@@ -12189,32 +12214,32 @@
         <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>394</v>
+        <v>278</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>44</v>
@@ -12226,13 +12251,13 @@
         <v>44</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>44</v>
@@ -12250,22 +12275,22 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>44</v>
@@ -12274,7 +12299,7 @@
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12282,7 +12307,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12290,7 +12315,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>51</v>
@@ -12302,23 +12327,21 @@
         <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>44</v>
       </c>
@@ -12330,7 +12353,7 @@
         <v>44</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>44</v>
@@ -12342,13 +12365,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12366,10 +12389,10 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>445</v>
+        <v>296</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12381,16 +12404,16 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>452</v>
+        <v>297</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12398,7 +12421,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>453</v>
+        <v>298</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12418,22 +12441,22 @@
         <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>454</v>
+        <v>299</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>456</v>
+        <v>301</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>457</v>
+        <v>302</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12446,7 +12469,7 @@
         <v>44</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>44</v>
@@ -12482,7 +12505,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12497,16 +12520,16 @@
         <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>458</v>
+        <v>305</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12514,11 +12537,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>307</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12534,20 +12557,18 @@
         <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>464</v>
+        <v>308</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -12560,7 +12581,7 @@
         <v>44</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>44</v>
@@ -12596,7 +12617,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12611,16 +12632,16 @@
         <v>63</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>468</v>
+        <v>313</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12628,11 +12649,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12651,20 +12672,16 @@
         <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>470</v>
+        <v>316</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>44</v>
       </c>
@@ -12676,7 +12693,7 @@
         <v>44</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>44</v>
@@ -12712,7 +12729,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>469</v>
+        <v>319</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12727,16 +12744,16 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12744,43 +12761,41 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>475</v>
+        <v>322</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12792,7 +12807,7 @@
         <v>44</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>44</v>
@@ -12828,13 +12843,13 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>475</v>
+        <v>328</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
@@ -12843,16 +12858,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>480</v>
+        <v>329</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12860,11 +12875,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>481</v>
+        <v>331</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12880,16 +12895,16 @@
         <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12940,7 +12955,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12952,10 +12967,10 @@
         <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>44</v>
@@ -12964,7 +12979,7 @@
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -12972,18 +12987,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>44</v>
@@ -12992,20 +13007,18 @@
         <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13018,7 +13031,7 @@
         <v>44</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>44</v>
@@ -13054,22 +13067,22 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>344</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>44</v>
@@ -13078,7 +13091,7 @@
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13086,43 +13099,41 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -13170,22 +13181,22 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>94</v>
+        <v>351</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>44</v>
@@ -13194,7 +13205,7 @@
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13202,7 +13213,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13210,7 +13221,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>51</v>
@@ -13225,18 +13236,18 @@
         <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>485</v>
+        <v>185</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13248,7 +13259,7 @@
         <v>44</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>44</v>
@@ -13284,10 +13295,10 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>51</v>
@@ -13299,16 +13310,16 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>489</v>
+        <v>360</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13316,7 +13327,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13324,7 +13335,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>51</v>
@@ -13336,19 +13347,21 @@
         <v>44</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>491</v>
+        <v>363</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>492</v>
+        <v>364</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
@@ -13372,13 +13385,13 @@
         <v>44</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -13396,10 +13409,10 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>51</v>
@@ -13411,23 +13424,3115 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM128" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AN128" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK129" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AL129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN129" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN102">
+  <autoFilter ref="A1:AN129">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13437,7 +16542,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI128">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4670" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -343,14 +343,14 @@
     <t>species</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/openhie.vn.case-reporting.hiv/StructureDefinition/vs-vn-ethnicity}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/openhie.vn.case-reporting.hiv/StructureDefinition/ext-vn-ethnicity}
 </t>
   </si>
   <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity.</t>
+    <t xml:space="preserve">Vietnam Ethnicity </t>
+  </si>
+  <si>
+    <t>Vietnam Ethnicity</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -875,271 +875,6 @@
   </si>
   <si>
     <t>Temporary</t>
-  </si>
-  <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Permanent</t>
@@ -1722,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN129"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1769,7 +1504,7 @@
     <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -10485,9 +10220,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10505,19 +10242,23 @@
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10565,31 +10306,31 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10601,14 +10342,14 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10620,18 +10361,18 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10655,55 +10396,55 @@
         <v>44</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10711,7 +10452,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10719,7 +10460,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>51</v>
@@ -10728,38 +10469,38 @@
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>44</v>
@@ -10771,31 +10512,31 @@
         <v>44</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10810,16 +10551,16 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10827,7 +10568,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10838,7 +10579,7 @@
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
@@ -10847,21 +10588,23 @@
         <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -10873,49 +10616,49 @@
         <v>44</v>
       </c>
       <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>44</v>
@@ -10924,16 +10667,16 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10941,7 +10684,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10952,7 +10695,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
@@ -10961,22 +10704,22 @@
         <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -10989,7 +10732,7 @@
         <v>44</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>44</v>
@@ -11025,31 +10768,31 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>44</v>
@@ -11057,7 +10800,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11068,7 +10811,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>44</v>
@@ -11077,16 +10820,16 @@
         <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11101,7 +10844,7 @@
         <v>44</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>44</v>
@@ -11137,22 +10880,22 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>44</v>
@@ -11161,7 +10904,7 @@
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -11169,18 +10912,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>44</v>
@@ -11189,18 +10932,20 @@
         <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -11213,7 +10958,7 @@
         <v>44</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>44</v>
@@ -11249,22 +10994,22 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>44</v>
@@ -11273,7 +11018,7 @@
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11281,41 +11026,43 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11327,7 +11074,7 @@
         <v>44</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>44</v>
@@ -11363,22 +11110,22 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
@@ -11387,7 +11134,7 @@
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11395,18 +11142,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>44</v>
@@ -11415,19 +11162,21 @@
         <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
@@ -11451,13 +11200,13 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11475,13 +11224,13 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>44</v>
@@ -11490,16 +11239,16 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11507,11 +11256,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11527,19 +11276,21 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11551,7 +11302,7 @@
         <v>44</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>44</v>
@@ -11587,7 +11338,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11602,16 +11353,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11619,7 +11370,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11630,7 +11381,7 @@
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>44</v>
@@ -11639,21 +11390,23 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11701,13 +11454,13 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>44</v>
@@ -11716,16 +11469,16 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11733,7 +11486,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11753,20 +11506,20 @@
         <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11779,7 +11532,7 @@
         <v>44</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>44</v>
@@ -11815,7 +11568,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11830,16 +11583,16 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11847,11 +11600,9 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>44</v>
       </c>
@@ -11869,22 +11620,20 @@
         <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -11909,13 +11658,13 @@
         <v>44</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>44</v>
@@ -11933,13 +11682,13 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>44</v>
@@ -11948,16 +11697,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11965,7 +11714,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11988,16 +11737,18 @@
         <v>44</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
       </c>
@@ -12045,7 +11796,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12054,22 +11805,22 @@
         <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK90" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -12077,18 +11828,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>44</v>
@@ -12100,17 +11851,15 @@
         <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12147,37 +11896,37 @@
         <v>44</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>44</v>
@@ -12191,7 +11940,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12199,47 +11948,47 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>44</v>
@@ -12251,13 +12000,13 @@
         <v>44</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>44</v>
@@ -12275,13 +12024,13 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>44</v>
@@ -12290,16 +12039,16 @@
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>44</v>
@@ -12307,7 +12056,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12327,20 +12076,18 @@
         <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12353,7 +12100,7 @@
         <v>44</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>44</v>
@@ -12365,13 +12112,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12389,7 +12136,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12401,10 +12148,10 @@
         <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>44</v>
@@ -12413,7 +12160,7 @@
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12421,18 +12168,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>44</v>
@@ -12441,23 +12188,21 @@
         <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>300</v>
+        <v>142</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>44</v>
       </c>
@@ -12469,7 +12214,7 @@
         <v>44</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>44</v>
@@ -12505,22 +12250,22 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>44</v>
@@ -12529,7 +12274,7 @@
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12537,11 +12282,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12554,22 +12299,26 @@
         <v>44</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
       </c>
@@ -12581,7 +12330,7 @@
         <v>44</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>44</v>
@@ -12617,7 +12366,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12629,10 +12378,10 @@
         <v>44</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>312</v>
+        <v>94</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>44</v>
@@ -12641,7 +12390,7 @@
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12649,15 +12398,15 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>51</v>
@@ -12669,19 +12418,23 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
       </c>
@@ -12693,7 +12446,7 @@
         <v>44</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>44</v>
@@ -12705,13 +12458,13 @@
         <v>44</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -12729,10 +12482,10 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>51</v>
@@ -12744,16 +12497,16 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12761,11 +12514,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12781,21 +12534,23 @@
         <v>44</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12807,7 +12562,7 @@
         <v>44</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>44</v>
@@ -12843,7 +12598,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12858,16 +12613,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12875,18 +12630,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
@@ -12895,18 +12650,20 @@
         <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -12955,13 +12712,13 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
@@ -12970,16 +12727,16 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -12987,11 +12744,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13010,16 +12767,20 @@
         <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -13031,7 +12792,7 @@
         <v>44</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>44</v>
@@ -13067,7 +12828,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13082,16 +12843,16 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13099,7 +12860,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13110,30 +12871,32 @@
         <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -13181,13 +12944,13 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>44</v>
@@ -13196,16 +12959,16 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13213,7 +12976,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13233,21 +12996,19 @@
         <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>355</v>
+        <v>137</v>
       </c>
       <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>44</v>
       </c>
@@ -13259,7 +13020,7 @@
         <v>44</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>44</v>
@@ -13295,7 +13056,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13307,10 +13068,10 @@
         <v>44</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>44</v>
@@ -13319,7 +13080,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13327,18 +13088,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>44</v>
@@ -13350,18 +13111,18 @@
         <v>44</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
@@ -13385,13 +13146,13 @@
         <v>44</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>44</v>
@@ -13409,31 +13170,31 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -13441,42 +13202,42 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>376</v>
+        <v>121</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>44</v>
@@ -13525,31 +13286,31 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>44</v>
@@ -13557,7 +13318,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13565,10 +13326,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>44</v>
@@ -13577,23 +13338,21 @@
         <v>44</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>44</v>
       </c>
@@ -13641,13 +13400,13 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>44</v>
@@ -13656,7 +13415,7 @@
         <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>385</v>
+        <v>130</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>139</v>
@@ -13665,7 +13424,7 @@
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -13673,7 +13432,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13681,10 +13440,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>44</v>
@@ -13693,23 +13452,19 @@
         <v>44</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>44</v>
       </c>
@@ -13733,13 +13488,13 @@
         <v>44</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -13757,22 +13512,22 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>393</v>
+        <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>139</v>
@@ -13787,2752 +13542,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN129">
+  <autoFilter ref="A1:AN105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16542,7 +13553,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI128">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$131</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="504">
   <si>
     <t>Path</t>
   </si>
@@ -639,28 +639,31 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>theCCCD</t>
+    <t>cccdID</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/NationalID</t>
   </si>
   <si>
-    <t>soCMTND</t>
-  </si>
-  <si>
-    <t>theBHXH</t>
+    <t>cmtndID</t>
+  </si>
+  <si>
+    <t>hhttps://basespecs.vn/NamingSystem/NationalID9</t>
+  </si>
+  <si>
+    <t>insuranceID</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
   </si>
   <si>
-    <t>soHoChieu</t>
+    <t>passportnum</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
   </si>
   <si>
-    <t>BanglaiXe</t>
+    <t>driverlic</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/DriverID</t>
@@ -875,6 +878,281 @@
   </si>
   <si>
     <t>Temporary</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>adminAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/openhie.vn.case-reporting.hiv/StructureDefinition/vn-administrative-address}
+</t>
+  </si>
+  <si>
+    <t>Vietnam Administrative Address</t>
+  </si>
+  <si>
+    <t>Vietnam Administrative Address.</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Permanent</t>
@@ -1457,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1504,7 +1782,7 @@
     <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -5784,7 +6062,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6201,7 +6479,7 @@
         <v>123</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>44</v>
@@ -6814,7 +7092,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7231,7 +7509,7 @@
         <v>123</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>44</v>
@@ -7844,7 +8122,7 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>44</v>
@@ -8261,7 +8539,7 @@
         <v>123</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>44</v>
@@ -8874,7 +9152,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9288,7 +9566,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9311,70 +9589,70 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9389,13 +9667,13 @@
         <v>63</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -9406,7 +9684,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9429,19 +9707,19 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9490,7 +9768,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9505,16 +9783,16 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9522,7 +9800,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9545,19 +9823,19 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9606,7 +9884,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9621,16 +9899,16 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -9638,7 +9916,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9664,16 +9942,16 @@
         <v>71</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9701,10 +9979,10 @@
         <v>150</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>44</v>
@@ -9722,7 +10000,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9737,16 +10015,16 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -9754,7 +10032,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9777,19 +10055,19 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -9838,7 +10116,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -9853,24 +10131,24 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9893,19 +10171,19 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -9954,7 +10232,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -9969,7 +10247,7 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>139</v>
@@ -9978,7 +10256,7 @@
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -9986,7 +10264,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10009,19 +10287,19 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10058,10 +10336,10 @@
         <v>44</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>44</v>
@@ -10070,7 +10348,7 @@
         <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10085,16 +10363,16 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10102,10 +10380,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>44</v>
@@ -10127,19 +10405,19 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10188,7 +10466,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10203,16 +10481,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10220,11 +10498,9 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10242,23 +10518,19 @@
         <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10306,31 +10578,31 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10338,18 +10610,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10361,18 +10633,18 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
       </c>
@@ -10396,55 +10668,55 @@
         <v>44</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>44</v>
@@ -10452,9 +10724,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10475,20 +10749,16 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10536,31 +10806,31 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>
@@ -10568,7 +10838,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10579,31 +10849,31 @@
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -10616,7 +10886,7 @@
         <v>44</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>44</v>
@@ -10628,13 +10898,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -10652,13 +10922,13 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>44</v>
@@ -10667,16 +10937,16 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -10684,7 +10954,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10695,7 +10965,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
@@ -10704,23 +10974,21 @@
         <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -10732,7 +11000,7 @@
         <v>44</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>44</v>
@@ -10744,13 +11012,13 @@
         <v>44</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>44</v>
@@ -10768,31 +11036,31 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>44</v>
@@ -10800,7 +11068,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10820,19 +11088,23 @@
         <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
       </c>
@@ -10844,7 +11116,7 @@
         <v>44</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>44</v>
@@ -10880,7 +11152,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10892,10 +11164,10 @@
         <v>44</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>309</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>44</v>
@@ -10904,7 +11176,7 @@
         <v>44</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>44</v>
@@ -10912,11 +11184,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10932,20 +11204,18 @@
         <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -10958,7 +11228,7 @@
         <v>44</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>44</v>
@@ -10994,7 +11264,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11006,10 +11276,10 @@
         <v>44</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>139</v>
+        <v>316</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>44</v>
@@ -11018,7 +11288,7 @@
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11026,43 +11296,39 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11074,7 +11340,7 @@
         <v>44</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>44</v>
@@ -11110,22 +11376,22 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>94</v>
+        <v>324</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
@@ -11134,7 +11400,7 @@
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11142,18 +11408,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>44</v>
@@ -11162,21 +11428,21 @@
         <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
@@ -11188,7 +11454,7 @@
         <v>44</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>44</v>
@@ -11200,13 +11466,13 @@
         <v>44</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>44</v>
@@ -11224,13 +11490,13 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>44</v>
@@ -11239,16 +11505,16 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11256,11 +11522,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11276,21 +11542,19 @@
         <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>44</v>
       </c>
@@ -11338,7 +11602,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11353,16 +11617,16 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11370,18 +11634,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>44</v>
@@ -11390,23 +11654,19 @@
         <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>44</v>
       </c>
@@ -11418,7 +11678,7 @@
         <v>44</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>44</v>
@@ -11454,13 +11714,13 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>44</v>
@@ -11469,16 +11729,16 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -11486,7 +11746,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11506,21 +11766,21 @@
         <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>44</v>
       </c>
@@ -11568,7 +11828,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11583,16 +11843,16 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -11600,7 +11860,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11620,20 +11880,20 @@
         <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -11646,7 +11906,7 @@
         <v>44</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>44</v>
@@ -11658,13 +11918,13 @@
         <v>44</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>44</v>
@@ -11682,7 +11942,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11697,16 +11957,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -11714,9 +11974,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>44</v>
       </c>
@@ -11734,20 +11996,22 @@
         <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -11796,31 +12060,31 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>44</v>
@@ -11828,7 +12092,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11851,13 +12115,13 @@
         <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11908,7 +12172,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>350</v>
+        <v>138</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -11920,13 +12184,13 @@
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>44</v>
@@ -11940,11 +12204,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11963,20 +12227,18 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>356</v>
+        <v>142</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>44</v>
       </c>
@@ -12012,19 +12274,19 @@
         <v>44</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12036,13 +12298,13 @@
         <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>44</v>
@@ -12056,9 +12318,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>44</v>
       </c>
@@ -12079,13 +12343,13 @@
         <v>44</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12136,22 +12400,22 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>44</v>
@@ -12168,41 +12432,43 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>362</v>
+        <v>282</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
       </c>
@@ -12214,7 +12480,7 @@
         <v>44</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>44</v>
@@ -12226,13 +12492,13 @@
         <v>44</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
@@ -12250,22 +12516,22 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>44</v>
@@ -12274,7 +12540,7 @@
         <v>44</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>44</v>
@@ -12282,43 +12548,41 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>44</v>
       </c>
@@ -12330,7 +12594,7 @@
         <v>44</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>44</v>
@@ -12342,13 +12606,13 @@
         <v>44</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>44</v>
@@ -12366,22 +12630,22 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>44</v>
@@ -12390,7 +12654,7 @@
         <v>44</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>44</v>
@@ -12398,7 +12662,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12406,7 +12670,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>51</v>
@@ -12418,22 +12682,22 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -12446,7 +12710,7 @@
         <v>44</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>44</v>
@@ -12458,13 +12722,13 @@
         <v>44</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -12482,10 +12746,10 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>51</v>
@@ -12497,16 +12761,16 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -12514,7 +12778,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12525,7 +12789,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>44</v>
@@ -12534,23 +12798,19 @@
         <v>44</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
@@ -12562,7 +12822,7 @@
         <v>44</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>44</v>
@@ -12598,13 +12858,13 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>44</v>
@@ -12613,16 +12873,16 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -12630,18 +12890,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>44</v>
@@ -12650,20 +12910,18 @@
         <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -12676,7 +12934,7 @@
         <v>44</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>44</v>
@@ -12712,13 +12970,13 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>44</v>
@@ -12727,16 +12985,16 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -12744,11 +13002,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12767,20 +13025,18 @@
         <v>52</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>44</v>
       </c>
@@ -12792,7 +13048,7 @@
         <v>44</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>44</v>
@@ -12828,7 +13084,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -12843,16 +13099,16 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -12860,43 +13116,39 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>44</v>
       </c>
@@ -12944,13 +13196,13 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>44</v>
@@ -12959,16 +13211,16 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -12976,11 +13228,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12996,16 +13248,16 @@
         <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13020,7 +13272,7 @@
         <v>44</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>44</v>
@@ -13056,7 +13308,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13068,10 +13320,10 @@
         <v>44</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>139</v>
+        <v>348</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>44</v>
@@ -13080,7 +13332,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13088,18 +13340,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>44</v>
@@ -13108,19 +13360,19 @@
         <v>44</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>142</v>
+        <v>352</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13170,22 +13422,22 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>144</v>
+        <v>354</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>44</v>
@@ -13194,7 +13446,7 @@
         <v>44</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -13202,42 +13454,40 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>121</v>
+        <v>360</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>44</v>
@@ -13250,7 +13500,7 @@
         <v>44</v>
       </c>
       <c r="S103" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>44</v>
@@ -13286,22 +13536,22 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>44</v>
@@ -13310,7 +13560,7 @@
         <v>44</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>44</v>
@@ -13318,7 +13568,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13326,7 +13576,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>51</v>
@@ -13338,21 +13588,21 @@
         <v>44</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>404</v>
+        <v>156</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>44</v>
       </c>
@@ -13376,13 +13626,13 @@
         <v>44</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>44</v>
@@ -13400,10 +13650,10 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>51</v>
@@ -13415,16 +13665,16 @@
         <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>44</v>
@@ -13432,7 +13682,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13440,7 +13690,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>51</v>
@@ -13452,19 +13702,23 @@
         <v>44</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>44</v>
       </c>
@@ -13488,13 +13742,13 @@
         <v>44</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>411</v>
+        <v>44</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -13512,10 +13766,10 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>51</v>
@@ -13527,7 +13781,7 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>139</v>
@@ -13536,14 +13790,2990 @@
         <v>44</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="AN105" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN105">
+  <autoFilter ref="A1:AN131">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13553,7 +16783,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI130">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -639,31 +639,31 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>cccdID</t>
+    <t>national_id12</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/NationalID</t>
   </si>
   <si>
-    <t>cmtndID</t>
+    <t>national_id9</t>
   </si>
   <si>
     <t>hhttps://basespecs.vn/NamingSystem/NationalID9</t>
   </si>
   <si>
-    <t>insuranceID</t>
+    <t>insurance_nr</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
   </si>
   <si>
-    <t>passportnum</t>
+    <t>passport_nr</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
   </si>
   <si>
-    <t>driverlic</t>
+    <t>driver_license</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/DriverID</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -639,31 +639,31 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>national_id12</t>
+    <t>cccdID</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/NationalID</t>
   </si>
   <si>
-    <t>national_id9</t>
+    <t>cmtndID</t>
   </si>
   <si>
     <t>hhttps://basespecs.vn/NamingSystem/NationalID9</t>
   </si>
   <si>
-    <t>insurance_nr</t>
+    <t>insuranceID</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
   </si>
   <si>
-    <t>passport_nr</t>
+    <t>passportnum</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
   </si>
   <si>
-    <t>driver_license</t>
+    <t>driverlic</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/DriverID</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
